--- a/anki_deque/darakwon_n1&2_grammar_part1.xlsx
+++ b/anki_deque/darakwon_n1&2_grammar_part1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4BF503-EE96-454D-8B01-5C1ACBE72E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A391694A-C077-4DE3-90E2-76D93ECA1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7916F758-45D7-460B-BEAF-6EF62DFD2C2C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7916F758-45D7-460B-BEAF-6EF62DFD2C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17193,41 +17192,6 @@
   </si>
   <si>
     <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하다니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans JP Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>, ~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>라고는</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">あの強いチームが初出場チームに敗れるとは、全く予想外だった。
 </t>
     </r>
@@ -67108,12 +67072,84 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">① </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하다니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕 Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">라고는
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ~(이)란 [정의, 명제]</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67164,6 +67200,26 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP Light"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67187,7 +67243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -67202,6 +67258,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -67539,8 +67598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2562539E-01B5-4A06-ACFE-022588858E58}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -68090,11 +68149,11 @@
       <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>133</v>
+      <c r="C39" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="72">
@@ -68105,10 +68164,10 @@
         <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="36">
@@ -68119,10 +68178,10 @@
         <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="36">
@@ -68133,10 +68192,10 @@
         <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="72">
@@ -68147,10 +68206,10 @@
         <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="72">
@@ -68161,10 +68220,10 @@
         <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="72">
@@ -68175,10 +68234,10 @@
         <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="72">
@@ -68189,10 +68248,10 @@
         <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="108">
@@ -68203,10 +68262,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="36">
@@ -68217,10 +68276,10 @@
         <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="144">
@@ -68231,10 +68290,10 @@
         <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="72">
@@ -68245,10 +68304,10 @@
         <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="54">
@@ -68259,10 +68318,10 @@
         <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="108">
@@ -68273,10 +68332,10 @@
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="108">
@@ -68287,10 +68346,10 @@
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="36">
@@ -68301,10 +68360,10 @@
         <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="36">
@@ -68315,10 +68374,10 @@
         <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="144">
@@ -68329,10 +68388,10 @@
         <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="72">
@@ -68340,13 +68399,13 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="72">
@@ -68354,13 +68413,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="36">
@@ -68368,13 +68427,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="72">
@@ -68382,13 +68441,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="180">
@@ -68396,13 +68455,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="36">
@@ -68410,13 +68469,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="108">
@@ -68424,13 +68483,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="108">
@@ -68438,13 +68497,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="72">
@@ -68452,13 +68511,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="72">
@@ -68466,13 +68525,13 @@
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="72">
@@ -68480,13 +68539,13 @@
         <v>11</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="36">
@@ -68494,13 +68553,13 @@
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="108">
@@ -68508,13 +68567,13 @@
         <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="72">
@@ -68522,13 +68581,13 @@
         <v>11</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="108">
@@ -68536,13 +68595,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="72">
@@ -68550,13 +68609,13 @@
         <v>11</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36">
@@ -68564,13 +68623,13 @@
         <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="69">
@@ -68578,13 +68637,13 @@
         <v>11</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="288">
@@ -68592,13 +68651,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="144">
@@ -68606,13 +68665,13 @@
         <v>11</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="144">
@@ -68620,13 +68679,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="108">
@@ -68634,13 +68693,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="108">
@@ -68648,13 +68707,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="72">
@@ -68662,13 +68721,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="108">
@@ -68676,13 +68735,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="72">
@@ -68690,13 +68749,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="72">
@@ -68704,13 +68763,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="180">
@@ -68718,13 +68777,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="36">
@@ -68732,13 +68791,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="36">
@@ -68746,13 +68805,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="180">
@@ -68760,13 +68819,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="72">
@@ -68774,13 +68833,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="72">
@@ -68788,13 +68847,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="36">
@@ -68802,13 +68861,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="72">
@@ -68816,741 +68875,741 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="108">
       <c r="A92" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="72">
       <c r="A93" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="108">
       <c r="A94" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="72">
       <c r="A95" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="72">
       <c r="A96" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="72">
       <c r="A97" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="36">
       <c r="A98" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="108">
       <c r="A99" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="72">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="72">
       <c r="A101" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="144">
       <c r="A102" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="72">
       <c r="A103" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="72">
       <c r="A104" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="72">
       <c r="A105" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="144">
       <c r="A106" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="36">
       <c r="A107" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="144">
       <c r="A108" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="72">
       <c r="A109" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="72">
       <c r="A110" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="36">
       <c r="A111" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="36">
       <c r="A112" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="72">
       <c r="A113" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="36">
       <c r="A114" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="36">
       <c r="A115" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="108">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="54">
       <c r="A117" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="72">
       <c r="A118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="108">
       <c r="A119" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="72">
       <c r="A120" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="72">
       <c r="A121" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="36">
       <c r="A122" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="108">
       <c r="A123" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="36">
       <c r="A124" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="72">
       <c r="A125" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="72">
       <c r="A126" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="36">
       <c r="A127" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="108">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="144">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="108">
       <c r="A130" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="36">
       <c r="A131" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="36">
       <c r="A132" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="180">
       <c r="A133" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="108">
       <c r="A134" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="72">
       <c r="A135" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="144">
       <c r="A136" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="72">
       <c r="A137" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="144">
       <c r="A138" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="72">
       <c r="A139" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="36">
       <c r="A140" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="108">
       <c r="A141" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="72">
       <c r="A142" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="108">
       <c r="A143" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="4:4">
